--- a/leiji/example_output.xlsx
+++ b/leiji/example_output.xlsx
@@ -5,11 +5,11 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chandler/Documents/Projects/sndataclean/leiji/6.1-6.3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chandler/Documents/Projects/sndataclean/leiji/7.1-7.12_leiji/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="760" windowWidth="28800" windowHeight="17540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="clean_data" sheetId="1" r:id="rId1"/>
@@ -38202,7 +38202,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -38251,10 +38251,10 @@
         <v>27</v>
       </c>
       <c r="C2" s="8">
-        <v>147317</v>
+        <v>90185</v>
       </c>
       <c r="D2" s="1">
-        <v>3.0599999999999999E-2</v>
+        <v>3.6799999999999999E-2</v>
       </c>
       <c r="E2" s="66"/>
       <c r="F2" s="66"/>
@@ -38270,10 +38270,10 @@
         <v>28</v>
       </c>
       <c r="C3" s="8">
-        <v>511423</v>
+        <v>465400</v>
       </c>
       <c r="D3" s="1">
-        <v>7.5899999999999995E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="E3" s="66"/>
       <c r="F3" s="66"/>
@@ -38289,10 +38289,10 @@
         <v>29</v>
       </c>
       <c r="C4" s="8">
-        <v>300291</v>
+        <v>133998</v>
       </c>
       <c r="D4" s="1">
-        <v>5.9900000000000002E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E4" s="66"/>
       <c r="F4" s="66"/>
@@ -38309,11 +38309,11 @@
       </c>
       <c r="C5" s="79">
         <f>SUM(C2:C4)</f>
-        <v>959031</v>
+        <v>689583</v>
       </c>
       <c r="D5" s="80">
         <f>C5/(C2/D2+C3/D3+C4/D4)</f>
-        <v>5.7892914540281393E-2</v>
+        <v>6.1356756655286525E-2</v>
       </c>
       <c r="E5" s="81"/>
       <c r="F5" s="81"/>
@@ -38331,10 +38331,10 @@
         <v>32</v>
       </c>
       <c r="C6" s="8">
-        <v>44872</v>
+        <v>29973</v>
       </c>
       <c r="D6" s="1">
-        <v>2.8299999999999999E-2</v>
+        <v>3.6799999999999999E-2</v>
       </c>
       <c r="E6" s="66"/>
       <c r="F6" s="66"/>
@@ -38350,10 +38350,10 @@
         <v>33</v>
       </c>
       <c r="C7" s="8">
-        <v>33721</v>
+        <v>26165</v>
       </c>
       <c r="D7" s="1">
-        <v>2.4400000000000002E-2</v>
+        <v>2.6800000000000001E-2</v>
       </c>
       <c r="E7" s="66"/>
       <c r="F7" s="66"/>
@@ -38369,10 +38369,10 @@
         <v>34</v>
       </c>
       <c r="C8" s="8">
-        <v>24548</v>
+        <v>27519</v>
       </c>
       <c r="D8" s="1">
-        <v>1.9099999999999999E-2</v>
+        <v>2.3900000000000001E-2</v>
       </c>
       <c r="E8" s="66"/>
       <c r="F8" s="66"/>
@@ -38388,10 +38388,10 @@
         <v>35</v>
       </c>
       <c r="C9" s="8">
-        <v>52593</v>
+        <v>44390</v>
       </c>
       <c r="D9" s="1">
-        <v>3.9800000000000002E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="E9" s="66"/>
       <c r="F9" s="66"/>
@@ -38408,11 +38408,11 @@
       </c>
       <c r="C10" s="79">
         <f>SUM(C6:C9)</f>
-        <v>155734</v>
+        <v>128047</v>
       </c>
       <c r="D10" s="80">
         <f>C10/(C6/D6+C7/D7+C8/D8+C9/D9)</f>
-        <v>2.7938063165385597E-2</v>
+        <v>3.0667972848273259E-2</v>
       </c>
       <c r="E10" s="81"/>
       <c r="F10" s="81"/>
@@ -38430,10 +38430,10 @@
         <v>37</v>
       </c>
       <c r="C11" s="8">
-        <v>29918</v>
+        <v>31253</v>
       </c>
       <c r="D11" s="1">
-        <v>2.5700000000000001E-2</v>
+        <v>3.0800000000000001E-2</v>
       </c>
       <c r="E11" s="66"/>
       <c r="F11" s="66"/>
@@ -38449,10 +38449,10 @@
         <v>38</v>
       </c>
       <c r="C12" s="8">
-        <v>14007</v>
+        <v>5816</v>
       </c>
       <c r="D12" s="1">
-        <v>1.12E-2</v>
+        <v>1.18E-2</v>
       </c>
       <c r="E12" s="66"/>
       <c r="F12" s="66"/>
@@ -38468,10 +38468,10 @@
         <v>39</v>
       </c>
       <c r="C13" s="8">
-        <v>103764</v>
+        <v>60958</v>
       </c>
       <c r="D13" s="1">
-        <v>6.7400000000000002E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E13" s="66"/>
       <c r="F13" s="66"/>
@@ -38488,11 +38488,11 @@
       </c>
       <c r="C14" s="79">
         <f>SUM(C11:C13)</f>
-        <v>147689</v>
+        <v>98027</v>
       </c>
       <c r="D14" s="80">
         <f>C14/(C11/D11+C12/D12+C13/D13)</f>
-        <v>3.7349200511804806E-2</v>
+        <v>3.8844791712090647E-2</v>
       </c>
       <c r="E14" s="81"/>
       <c r="F14" s="81"/>
@@ -38510,10 +38510,10 @@
         <v>103</v>
       </c>
       <c r="C15" s="8">
-        <v>88928</v>
+        <v>113068</v>
       </c>
       <c r="D15" s="1">
-        <v>8.8200000000000001E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E15" s="66"/>
       <c r="F15" s="66"/>
@@ -38530,10 +38530,10 @@
       </c>
       <c r="C16" s="79">
         <f>SUM(C15)</f>
-        <v>88928</v>
+        <v>113068</v>
       </c>
       <c r="D16" s="80">
-        <v>8.8200000000000001E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E16" s="81"/>
       <c r="F16" s="81"/>
@@ -38551,10 +38551,10 @@
         <v>42</v>
       </c>
       <c r="C17" s="8">
-        <v>16589</v>
+        <v>25500</v>
       </c>
       <c r="D17" s="1">
-        <v>2.690697979371498E-2</v>
+        <v>2.3E-3</v>
       </c>
       <c r="E17" s="20">
         <v>189077</v>
@@ -38567,15 +38567,15 @@
       </c>
       <c r="H17" s="5">
         <f t="shared" ref="H17:I17" si="0">F17/C17</f>
-        <v>2.3991801796371091E-2</v>
+        <v>1.5607843137254902E-2</v>
       </c>
       <c r="I17" s="5">
         <f t="shared" si="0"/>
-        <v>7.8231096341231376E-2</v>
+        <v>0.91520109934507943</v>
       </c>
       <c r="J17" s="21">
         <f t="shared" ref="J17" si="1">H17*60+I17*40</f>
-        <v>4.56875196143152</v>
+        <v>37.544514562038472</v>
       </c>
       <c r="K17" s="70"/>
     </row>
@@ -38586,10 +38586,10 @@
       </c>
       <c r="C18" s="79">
         <f>SUM(C17)</f>
-        <v>16589</v>
+        <v>25500</v>
       </c>
       <c r="D18" s="80">
-        <v>2.690697979371498E-2</v>
+        <v>2.3E-3</v>
       </c>
       <c r="E18" s="81">
         <v>189077</v>
@@ -38602,15 +38602,15 @@
       </c>
       <c r="H18" s="83">
         <f t="shared" ref="H18" si="2">F18/C18</f>
-        <v>2.3991801796371091E-2</v>
+        <v>1.5607843137254902E-2</v>
       </c>
       <c r="I18" s="83">
         <f t="shared" ref="I18" si="3">G18/D18</f>
-        <v>7.8231096341231376E-2</v>
+        <v>0.91520109934507943</v>
       </c>
       <c r="J18" s="84">
         <f t="shared" ref="J18" si="4">H18*60+I18*40</f>
-        <v>4.56875196143152</v>
+        <v>37.544514562038472</v>
       </c>
       <c r="K18" s="70"/>
     </row>
@@ -38682,10 +38682,11 @@
       </c>
       <c r="C22" s="9">
         <f>SUM(C5+C10+C14+C16+C18)</f>
-        <v>1367971</v>
+        <v>1054225</v>
       </c>
       <c r="D22" s="11">
-        <v>5.0849731246170538E-2</v>
+        <f>C22/(C5/D5+C10/D10+C14/D14+C16/D16+C18/D18)</f>
+        <v>3.4107207868482634E-2</v>
       </c>
       <c r="E22" s="74"/>
       <c r="F22" s="74"/>
